--- a/테이블.xlsx
+++ b/테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mainproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3\MyCode\MainProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119D44A-B943-4DCB-B8C7-8C30F0147ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C65C836-1E7E-4CB3-91A5-641C03890C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="27135" windowHeight="15705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>충전소위치</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -257,67 +257,74 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>방전지원여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용시간당 전력사용량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제충전시간/충전량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전량과 시간 관계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청과 충전량 차이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청충전량-충전량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자예상충전소이용시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발예상시간-연결시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자예상충전소이용시간/충전요청량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전종료사유</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기기 상태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기기 송신상태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 총 충전소이용시간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용시간당 방전량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>요청방전량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>방전지원여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용시간당 전력사용량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제충전시간/충전량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전량과 시간 관계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청과 충전량 차이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청충전량-충전량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자예상충전소이용시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>출발예상시간-연결시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자예상충전소이용시간/충전요청량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전종료사유</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기기 상태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전기기 송신상태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 총 충전소이용시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용시간당 방전량</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약충전</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -601,71 +608,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="8" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="11" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="8" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="7" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="11" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1034,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,391 +1050,413 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" customWidth="1"/>
+    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:21" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="20" t="s">
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I8" s="17">
+        <v>22</v>
+      </c>
+      <c r="J8" s="17">
         <v>2</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="21">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H8" s="21">
-        <v>22</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="K8" s="17">
         <v>5</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="N8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="P8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="21">
+      <c r="R8" s="17">
         <v>10.8</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="S8" s="17">
         <v>0.12</v>
       </c>
-      <c r="R8" s="21">
+      <c r="T8" s="17">
         <v>0.6</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
         <v>68</v>
       </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>54</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>55</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" t="s">
         <v>66</v>
       </c>
-      <c r="L18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" t="s">
         <v>63</v>
       </c>
-      <c r="L20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="M21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
